--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.294761164851837</v>
+        <v>0.2716253482700288</v>
       </c>
       <c r="C2">
-        <v>0.5934510576038082</v>
+        <v>0.646407500340176</v>
       </c>
       <c r="D2">
-        <v>0.6734375906093485</v>
+        <v>0.84144457876875</v>
       </c>
       <c r="E2">
-        <v>0.8206324333155183</v>
+        <v>0.917302882786678</v>
       </c>
       <c r="F2">
-        <v>0.7947785491406499</v>
+        <v>0.9092388822629066</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.434750464113605</v>
+        <v>0.2726843341995326</v>
       </c>
       <c r="C3">
-        <v>0.5601214824550188</v>
+        <v>0.731747839592782</v>
       </c>
       <c r="D3">
-        <v>0.5133403895266375</v>
+        <v>1.006886897929402</v>
       </c>
       <c r="E3">
-        <v>0.716477766247242</v>
+        <v>1.003437540621937</v>
       </c>
       <c r="F3">
-        <v>0.5927563794985925</v>
+        <v>1.005107455845322</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4631546471130952</v>
+        <v>0.3732018941855291</v>
       </c>
       <c r="C4">
-        <v>0.5731232950029147</v>
+        <v>0.72231839705317</v>
       </c>
       <c r="D4">
-        <v>0.463406113500011</v>
+        <v>0.8136630649843791</v>
       </c>
       <c r="E4">
-        <v>0.6807393873576076</v>
+        <v>0.9020327405279585</v>
       </c>
       <c r="F4">
-        <v>0.5210763891207807</v>
+        <v>0.8577243111825058</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4670780588512574</v>
+        <v>0.5036323863627127</v>
       </c>
       <c r="C5">
-        <v>0.5146800832510562</v>
+        <v>0.6286073955106629</v>
       </c>
       <c r="D5">
-        <v>0.4191598434867215</v>
+        <v>0.6937851054938032</v>
       </c>
       <c r="E5">
-        <v>0.6474255505359064</v>
+        <v>0.832937636017129</v>
       </c>
       <c r="F5">
-        <v>0.4702102970683534</v>
+        <v>0.6958113806129091</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4355858309500542</v>
+        <v>0.4544332582864191</v>
       </c>
       <c r="C6">
-        <v>0.4827675170689029</v>
+        <v>0.5646968050727786</v>
       </c>
       <c r="D6">
-        <v>0.3460103874969001</v>
+        <v>0.4534038351377512</v>
       </c>
       <c r="E6">
-        <v>0.5882264763650987</v>
+        <v>0.6733526825800512</v>
       </c>
       <c r="F6">
-        <v>0.4167004937901385</v>
+        <v>0.5237622964888429</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4166137834612592</v>
+        <v>0.3601308786133244</v>
       </c>
       <c r="C7">
-        <v>0.438300923081242</v>
+        <v>0.423148671095416</v>
       </c>
       <c r="D7">
-        <v>0.3748978605203961</v>
+        <v>0.5203223525804069</v>
       </c>
       <c r="E7">
-        <v>0.6122890334804275</v>
+        <v>0.7213337317638812</v>
       </c>
       <c r="F7">
-        <v>0.4846503398763275</v>
+        <v>0.6629152402123534</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5732100964866719</v>
+        <v>0.5515821818765249</v>
       </c>
       <c r="C8">
-        <v>0.5732100964866719</v>
+        <v>0.600657948696442</v>
       </c>
       <c r="D8">
-        <v>0.5345595969764849</v>
+        <v>0.6415195273476259</v>
       </c>
       <c r="E8">
-        <v>0.731135826626274</v>
+        <v>0.8009491415487164</v>
       </c>
       <c r="F8">
-        <v>0.5240735091724253</v>
+        <v>0.6361854672819474</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1.094280845740254</v>
+        <v>0.8660249170169981</v>
       </c>
       <c r="C9">
-        <v>1.094280845740254</v>
+        <v>0.8660249170169981</v>
       </c>
       <c r="D9">
-        <v>1.197450569354007</v>
+        <v>0.8404044078926498</v>
       </c>
       <c r="E9">
-        <v>1.094280845740254</v>
+        <v>0.9167357350363571</v>
+      </c>
+      <c r="F9">
+        <v>0.3682497474507306</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.04443783748577212</v>
+      </c>
+      <c r="C10">
+        <v>0.04443783748577212</v>
+      </c>
+      <c r="D10">
+        <v>0.001974721400411894</v>
+      </c>
+      <c r="E10">
+        <v>0.04443783748577212</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2716253482700288</v>
+        <v>0.1791714497743671</v>
       </c>
       <c r="C2">
-        <v>0.646407500340176</v>
+        <v>0.5385450383678798</v>
       </c>
       <c r="D2">
-        <v>0.84144457876875</v>
+        <v>0.6945651025515058</v>
       </c>
       <c r="E2">
-        <v>0.917302882786678</v>
+        <v>0.8334057250532335</v>
       </c>
       <c r="F2">
-        <v>0.9092388822629066</v>
+        <v>0.8446427427717865</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2726843341995326</v>
+        <v>0.301941271613995</v>
       </c>
       <c r="C3">
-        <v>0.731747839592782</v>
+        <v>0.4442637132509937</v>
       </c>
       <c r="D3">
-        <v>1.006886897929402</v>
+        <v>0.4245434332406184</v>
       </c>
       <c r="E3">
-        <v>1.003437540621937</v>
+        <v>0.6515699757053101</v>
       </c>
       <c r="F3">
-        <v>1.005107455845322</v>
+        <v>0.600962680661734</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3732018941855291</v>
+        <v>0.3243108425389511</v>
       </c>
       <c r="C4">
-        <v>0.72231839705317</v>
+        <v>0.4322851197510529</v>
       </c>
       <c r="D4">
-        <v>0.8136630649843791</v>
+        <v>0.3306362357032265</v>
       </c>
       <c r="E4">
-        <v>0.9020327405279585</v>
+        <v>0.5750097700937146</v>
       </c>
       <c r="F4">
-        <v>0.8577243111825058</v>
+        <v>0.495938463684469</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5036323863627127</v>
+        <v>0.3104853196909608</v>
       </c>
       <c r="C5">
-        <v>0.6286073955106629</v>
+        <v>0.3658015102623823</v>
       </c>
       <c r="D5">
-        <v>0.6937851054938032</v>
+        <v>0.2953736427042636</v>
       </c>
       <c r="E5">
-        <v>0.832937636017129</v>
+        <v>0.5434828817030611</v>
       </c>
       <c r="F5">
-        <v>0.6958113806129091</v>
+        <v>0.4678351845006229</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4544332582864191</v>
+        <v>0.268364776153357</v>
       </c>
       <c r="C6">
-        <v>0.5646968050727786</v>
+        <v>0.3511917432508606</v>
       </c>
       <c r="D6">
-        <v>0.4534038351377512</v>
+        <v>0.2725367241778094</v>
       </c>
       <c r="E6">
-        <v>0.6733526825800512</v>
+        <v>0.5220504996432906</v>
       </c>
       <c r="F6">
-        <v>0.5237622964888429</v>
+        <v>0.4720135015700387</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3601308786133244</v>
+        <v>0.262150489134635</v>
       </c>
       <c r="C7">
-        <v>0.423148671095416</v>
+        <v>0.3806290492689116</v>
       </c>
       <c r="D7">
-        <v>0.5203223525804069</v>
+        <v>0.3627195589636479</v>
       </c>
       <c r="E7">
-        <v>0.7213337317638812</v>
+        <v>0.6022620351339173</v>
       </c>
       <c r="F7">
-        <v>0.6629152402123534</v>
+        <v>0.5751054381688496</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5515821818765249</v>
+        <v>0.4100380287874318</v>
       </c>
       <c r="C8">
-        <v>0.600657948696442</v>
+        <v>0.5602907672914271</v>
       </c>
       <c r="D8">
-        <v>0.6415195273476259</v>
+        <v>0.4907109460630159</v>
       </c>
       <c r="E8">
-        <v>0.8009491415487164</v>
+        <v>0.7005076345501282</v>
       </c>
       <c r="F8">
-        <v>0.6361854672819474</v>
+        <v>0.6221701641941373</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8660249170169981</v>
+        <v>0.7531841389519395</v>
       </c>
       <c r="C9">
-        <v>0.8660249170169981</v>
+        <v>0.7531841389519395</v>
       </c>
       <c r="D9">
-        <v>0.8404044078926498</v>
+        <v>0.7596698399655647</v>
       </c>
       <c r="E9">
-        <v>0.9167357350363571</v>
+        <v>0.8715904083717103</v>
       </c>
       <c r="F9">
-        <v>0.3682497474507306</v>
+        <v>0.5371919947236602</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04443783748577212</v>
+        <v>-0.07569287514151168</v>
       </c>
       <c r="C10">
-        <v>0.04443783748577212</v>
+        <v>0.07569287514151168</v>
       </c>
       <c r="D10">
-        <v>0.001974721400411894</v>
+        <v>0.005729411347188478</v>
       </c>
       <c r="E10">
-        <v>0.04443783748577212</v>
+        <v>0.07569287514151168</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1791714497743671</v>
+        <v>0.005369470315216797</v>
       </c>
       <c r="C2">
-        <v>0.5385450383678798</v>
+        <v>1.076795149390729</v>
       </c>
       <c r="D2">
-        <v>0.6945651025515058</v>
+        <v>5.444793568182083</v>
       </c>
       <c r="E2">
-        <v>0.8334057250532335</v>
+        <v>2.333408144363537</v>
       </c>
       <c r="F2">
-        <v>0.8446427427717865</v>
+        <v>2.356620468321115</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.301941271613995</v>
+        <v>0.08004204401876436</v>
       </c>
       <c r="C3">
-        <v>0.4442637132509937</v>
+        <v>1.074134375449918</v>
       </c>
       <c r="D3">
-        <v>0.4245434332406184</v>
+        <v>5.376472252851192</v>
       </c>
       <c r="E3">
-        <v>0.6515699757053101</v>
+        <v>2.318722116350123</v>
       </c>
       <c r="F3">
-        <v>0.600962680661734</v>
+        <v>2.340867082514619</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3243108425389511</v>
+        <v>0.01808692518996532</v>
       </c>
       <c r="C4">
-        <v>0.4322851197510529</v>
+        <v>1.091555239787779</v>
       </c>
       <c r="D4">
-        <v>0.3306362357032265</v>
+        <v>5.397618064264203</v>
       </c>
       <c r="E4">
-        <v>0.5750097700937146</v>
+        <v>2.323277440226243</v>
       </c>
       <c r="F4">
-        <v>0.495938463684469</v>
+        <v>2.347282362305163</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3104853196909608</v>
+        <v>0.0673762441061526</v>
       </c>
       <c r="C5">
-        <v>0.3658015102623823</v>
+        <v>1.105808622426705</v>
       </c>
       <c r="D5">
-        <v>0.2953736427042636</v>
+        <v>5.589789055284754</v>
       </c>
       <c r="E5">
-        <v>0.5434828817030611</v>
+        <v>2.364273473032414</v>
       </c>
       <c r="F5">
-        <v>0.4678351845006229</v>
+        <v>2.388322547876662</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.268364776153357</v>
+        <v>0.02957733957197041</v>
       </c>
       <c r="C6">
-        <v>0.3511917432508606</v>
+        <v>1.131070466074804</v>
       </c>
       <c r="D6">
-        <v>0.2725367241778094</v>
+        <v>5.550086184435333</v>
       </c>
       <c r="E6">
-        <v>0.5220504996432906</v>
+        <v>2.355862089434637</v>
       </c>
       <c r="F6">
-        <v>0.4720135015700387</v>
+        <v>2.381143925742878</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.262150489134635</v>
+        <v>0.08923231662305202</v>
       </c>
       <c r="C7">
-        <v>0.3806290492689116</v>
+        <v>1.105571907883932</v>
       </c>
       <c r="D7">
-        <v>0.3627195589636479</v>
+        <v>5.573846403776829</v>
       </c>
       <c r="E7">
-        <v>0.6022620351339173</v>
+        <v>2.360899490401239</v>
       </c>
       <c r="F7">
-        <v>0.5751054381688496</v>
+        <v>2.385282018651314</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4100380287874318</v>
+        <v>0.04225835016865745</v>
       </c>
       <c r="C8">
-        <v>0.5602907672914271</v>
+        <v>1.172851906978339</v>
       </c>
       <c r="D8">
-        <v>0.4907109460630159</v>
+        <v>5.774705933445779</v>
       </c>
       <c r="E8">
-        <v>0.7005076345501282</v>
+        <v>2.403061783110409</v>
       </c>
       <c r="F8">
-        <v>0.6221701641941373</v>
+        <v>2.429840096861529</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7531841389519395</v>
+        <v>0.1053273583819827</v>
       </c>
       <c r="C9">
-        <v>0.7531841389519395</v>
+        <v>1.115688490554983</v>
       </c>
       <c r="D9">
-        <v>0.7596698399655647</v>
+        <v>5.76308808600117</v>
       </c>
       <c r="E9">
-        <v>0.8715904083717103</v>
+        <v>2.400643265044011</v>
       </c>
       <c r="F9">
-        <v>0.5371919947236602</v>
+        <v>2.426058849520155</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07569287514151168</v>
+        <v>-0.01140659214618309</v>
       </c>
       <c r="C10">
-        <v>0.07569287514151168</v>
+        <v>1.164923355123781</v>
       </c>
       <c r="D10">
-        <v>0.005729411347188478</v>
+        <v>5.955443118527865</v>
       </c>
       <c r="E10">
-        <v>0.07569287514151168</v>
+        <v>2.440377658996219</v>
+      </c>
+      <c r="F10">
+        <v>2.469231899811152</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.001181092721129312</v>
+      </c>
+      <c r="C11">
+        <v>1.078446272129183</v>
+      </c>
+      <c r="D11">
+        <v>5.792657664955174</v>
+      </c>
+      <c r="E11">
+        <v>2.406794063677899</v>
+      </c>
+      <c r="F11">
+        <v>2.435968096926322</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.005369470315216797</v>
+        <v>0.08410299302171197</v>
       </c>
       <c r="C2">
-        <v>1.076795149390729</v>
+        <v>1.253677763513526</v>
       </c>
       <c r="D2">
-        <v>5.444793568182083</v>
+        <v>6.261918074916323</v>
       </c>
       <c r="E2">
-        <v>2.333408144363537</v>
+        <v>2.502382479741321</v>
       </c>
       <c r="F2">
-        <v>2.356620468321115</v>
+        <v>2.531284644362528</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.08004204401876436</v>
+        <v>-0.01946844920150798</v>
       </c>
       <c r="C3">
-        <v>1.074134375449918</v>
+        <v>1.273117676343247</v>
       </c>
       <c r="D3">
-        <v>5.376472252851192</v>
+        <v>6.739870713701541</v>
       </c>
       <c r="E3">
-        <v>2.318722116350123</v>
+        <v>2.596126097419296</v>
       </c>
       <c r="F3">
-        <v>2.340867082514619</v>
+        <v>2.628303442435235</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01808692518996532</v>
+        <v>0.0393246434631094</v>
       </c>
       <c r="C4">
-        <v>1.091555239787779</v>
+        <v>1.235849058089852</v>
       </c>
       <c r="D4">
-        <v>5.397618064264203</v>
+        <v>6.613468431034368</v>
       </c>
       <c r="E4">
-        <v>2.323277440226243</v>
+        <v>2.571666469632944</v>
       </c>
       <c r="F4">
-        <v>2.347282362305163</v>
+        <v>2.604123358268155</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0673762441061526</v>
+        <v>-0.04878613897638684</v>
       </c>
       <c r="C5">
-        <v>1.105808622426705</v>
+        <v>1.266707606888937</v>
       </c>
       <c r="D5">
-        <v>5.589789055284754</v>
+        <v>6.697608253045909</v>
       </c>
       <c r="E5">
-        <v>2.364273473032414</v>
+        <v>2.587973773639507</v>
       </c>
       <c r="F5">
-        <v>2.388322547876662</v>
+        <v>2.621339043423467</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02957733957197041</v>
+        <v>0.01069592955521734</v>
       </c>
       <c r="C6">
-        <v>1.131070466074804</v>
+        <v>1.306387404899978</v>
       </c>
       <c r="D6">
-        <v>5.550086184435333</v>
+        <v>6.984373269163457</v>
       </c>
       <c r="E6">
-        <v>2.355862089434637</v>
+        <v>2.642796486520189</v>
       </c>
       <c r="F6">
-        <v>2.381143925742878</v>
+        <v>2.678249917277403</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08923231662305202</v>
+        <v>-0.03495980545002601</v>
       </c>
       <c r="C7">
-        <v>1.105571907883932</v>
+        <v>1.341848499270465</v>
       </c>
       <c r="D7">
-        <v>5.573846403776829</v>
+        <v>6.976450903423854</v>
       </c>
       <c r="E7">
-        <v>2.360899490401239</v>
+        <v>2.64129720088896</v>
       </c>
       <c r="F7">
-        <v>2.385282018651314</v>
+        <v>2.677496044559739</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04225835016865745</v>
+        <v>0.04415342685500446</v>
       </c>
       <c r="C8">
-        <v>1.172851906978339</v>
+        <v>1.313189931210337</v>
       </c>
       <c r="D8">
-        <v>5.774705933445779</v>
+        <v>7.030782837840379</v>
       </c>
       <c r="E8">
-        <v>2.403061783110409</v>
+        <v>2.651562339044733</v>
       </c>
       <c r="F8">
-        <v>2.429840096861529</v>
+        <v>2.688802172282798</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1053273583819827</v>
+        <v>-0.01865779601231733</v>
       </c>
       <c r="C9">
-        <v>1.115688490554983</v>
+        <v>1.387484845158188</v>
       </c>
       <c r="D9">
-        <v>5.76308808600117</v>
+        <v>7.334554756911054</v>
       </c>
       <c r="E9">
-        <v>2.400643265044011</v>
+        <v>2.708238312429513</v>
       </c>
       <c r="F9">
-        <v>2.426058849520155</v>
+        <v>2.747711521186984</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01140659214618309</v>
+        <v>0.0924138300119391</v>
       </c>
       <c r="C10">
-        <v>1.164923355123781</v>
+        <v>1.344817476870875</v>
       </c>
       <c r="D10">
-        <v>5.955443118527865</v>
+        <v>7.384053110940232</v>
       </c>
       <c r="E10">
-        <v>2.440377658996219</v>
+        <v>2.717361424422639</v>
       </c>
       <c r="F10">
-        <v>2.469231899811152</v>
+        <v>2.756630766477241</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001181092721129312</v>
+        <v>-0.01024319886757436</v>
       </c>
       <c r="C11">
-        <v>1.078446272129183</v>
+        <v>1.413099074990776</v>
       </c>
       <c r="D11">
-        <v>5.792657664955174</v>
+        <v>7.676407440777855</v>
       </c>
       <c r="E11">
-        <v>2.406794063677899</v>
+        <v>2.770633039718153</v>
       </c>
       <c r="F11">
-        <v>2.435968096926322</v>
+        <v>2.813571923966318</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08410299302171197</v>
+        <v>0.1560082246840916</v>
       </c>
       <c r="C2">
-        <v>1.253677763513526</v>
+        <v>1.334666554170477</v>
       </c>
       <c r="D2">
-        <v>6.261918074916323</v>
+        <v>7.673042805661654</v>
       </c>
       <c r="E2">
-        <v>2.502382479741321</v>
+        <v>2.770025777075306</v>
       </c>
       <c r="F2">
-        <v>2.531284644362528</v>
+        <v>2.793148460838132</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01946844920150798</v>
+        <v>0.07663322156689945</v>
       </c>
       <c r="C3">
-        <v>1.273117676343247</v>
+        <v>1.299834471760893</v>
       </c>
       <c r="D3">
-        <v>6.739870713701541</v>
+        <v>7.386217108190144</v>
       </c>
       <c r="E3">
-        <v>2.596126097419296</v>
+        <v>2.7177595751262</v>
       </c>
       <c r="F3">
-        <v>2.628303442435235</v>
+        <v>2.744260142950399</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0393246434631094</v>
+        <v>0.1568606132576995</v>
       </c>
       <c r="C4">
-        <v>1.235849058089852</v>
+        <v>1.29112821977527</v>
       </c>
       <c r="D4">
-        <v>6.613468431034368</v>
+        <v>7.117402227092668</v>
       </c>
       <c r="E4">
-        <v>2.571666469632944</v>
+        <v>2.667845990137487</v>
       </c>
       <c r="F4">
-        <v>2.604123358268155</v>
+        <v>2.690829533573063</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.04878613897638684</v>
+        <v>0.0935746678326199</v>
       </c>
       <c r="C5">
-        <v>1.266707606888937</v>
+        <v>1.365793217520896</v>
       </c>
       <c r="D5">
-        <v>6.697608253045909</v>
+        <v>7.57656095386177</v>
       </c>
       <c r="E5">
-        <v>2.587973773639507</v>
+        <v>2.752555349827097</v>
       </c>
       <c r="F5">
-        <v>2.621339043423467</v>
+        <v>2.78007587260341</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01069592955521734</v>
+        <v>0.1424348649439729</v>
       </c>
       <c r="C6">
-        <v>1.306387404899978</v>
+        <v>1.381738402566604</v>
       </c>
       <c r="D6">
-        <v>6.984373269163457</v>
+        <v>8.024261160333362</v>
       </c>
       <c r="E6">
-        <v>2.642796486520189</v>
+        <v>2.832712685807257</v>
       </c>
       <c r="F6">
-        <v>2.678249917277403</v>
+        <v>2.859715526557411</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03495980545002601</v>
+        <v>0.1066018923057719</v>
       </c>
       <c r="C7">
-        <v>1.341848499270465</v>
+        <v>1.373320158004856</v>
       </c>
       <c r="D7">
-        <v>6.976450903423854</v>
+        <v>7.768055166292034</v>
       </c>
       <c r="E7">
-        <v>2.64129720088896</v>
+        <v>2.787123098517903</v>
       </c>
       <c r="F7">
-        <v>2.677496044559739</v>
+        <v>2.815859037392981</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04415342685500446</v>
+        <v>0.1578286088130434</v>
       </c>
       <c r="C8">
-        <v>1.313189931210337</v>
+        <v>1.342716586736134</v>
       </c>
       <c r="D8">
-        <v>7.030782837840379</v>
+        <v>7.844528394684448</v>
       </c>
       <c r="E8">
-        <v>2.651562339044733</v>
+        <v>2.800808525173481</v>
       </c>
       <c r="F8">
-        <v>2.688802172282798</v>
+        <v>2.827956351813759</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01865779601231733</v>
+        <v>0.08991622227243078</v>
       </c>
       <c r="C9">
-        <v>1.387484845158188</v>
+        <v>1.431264513475095</v>
       </c>
       <c r="D9">
-        <v>7.334554756911054</v>
+        <v>8.13824447033133</v>
       </c>
       <c r="E9">
-        <v>2.708238312429513</v>
+        <v>2.852760850532573</v>
       </c>
       <c r="F9">
-        <v>2.747711521186984</v>
+        <v>2.884308066253469</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0924138300119391</v>
+        <v>0.157804923366503</v>
       </c>
       <c r="C10">
-        <v>1.344817476870875</v>
+        <v>1.414187432328667</v>
       </c>
       <c r="D10">
-        <v>7.384053110940232</v>
+        <v>8.224904023511264</v>
       </c>
       <c r="E10">
-        <v>2.717361424422639</v>
+        <v>2.867909347157135</v>
       </c>
       <c r="F10">
-        <v>2.756630766477241</v>
+        <v>2.897454014080703</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01024319886757436</v>
+        <v>0.06053529240133091</v>
       </c>
       <c r="C11">
-        <v>1.413099074990776</v>
+        <v>1.461861534950335</v>
       </c>
       <c r="D11">
-        <v>7.676407440777855</v>
+        <v>8.447652183675055</v>
       </c>
       <c r="E11">
-        <v>2.770633039718153</v>
+        <v>2.906484506009804</v>
       </c>
       <c r="F11">
-        <v>2.813571923966318</v>
+        <v>2.941077792346796</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1066018923057719</v>
+        <v>0.1732741012286916</v>
       </c>
       <c r="C7">
-        <v>1.373320158004856</v>
+        <v>1.574991177320644</v>
       </c>
       <c r="D7">
-        <v>7.768055166292034</v>
+        <v>9.359491832855587</v>
       </c>
       <c r="E7">
-        <v>2.787123098517903</v>
+        <v>3.05932865721478</v>
       </c>
       <c r="F7">
-        <v>2.815859037392981</v>
+        <v>3.095418501638419</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1578286088130434</v>
+        <v>0.2044873955334486</v>
       </c>
       <c r="C8">
-        <v>1.342716586736134</v>
+        <v>1.562635388531142</v>
       </c>
       <c r="D8">
-        <v>7.844528394684448</v>
+        <v>9.505286999794503</v>
       </c>
       <c r="E8">
-        <v>2.800808525173481</v>
+        <v>3.083064546809636</v>
       </c>
       <c r="F8">
-        <v>2.827956351813759</v>
+        <v>3.118709047737856</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.08991622227243078</v>
+        <v>-0.09975482970692948</v>
       </c>
       <c r="C9">
-        <v>1.431264513475095</v>
+        <v>2.241897685767165</v>
       </c>
       <c r="D9">
-        <v>8.13824447033133</v>
+        <v>15.38488210364042</v>
       </c>
       <c r="E9">
-        <v>2.852760850532573</v>
+        <v>3.922356702754152</v>
       </c>
       <c r="F9">
-        <v>2.884308066253469</v>
+        <v>4.022951401199263</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.157804923366503</v>
+        <v>-0.8689250956944341</v>
       </c>
       <c r="C10">
-        <v>1.414187432328667</v>
+        <v>2.089385287080378</v>
       </c>
       <c r="D10">
-        <v>8.224904023511264</v>
+        <v>12.84994429113759</v>
       </c>
       <c r="E10">
-        <v>2.867909347157135</v>
+        <v>3.584681895390105</v>
       </c>
       <c r="F10">
-        <v>2.897454014080703</v>
+        <v>3.619782165404088</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06053529240133091</v>
+        <v>0.9642800447058392</v>
       </c>
       <c r="C11">
-        <v>1.461861534950335</v>
+        <v>1.347199366044221</v>
       </c>
       <c r="D11">
-        <v>8.447652183675055</v>
+        <v>3.741412787431818</v>
       </c>
       <c r="E11">
-        <v>2.906484506009804</v>
+        <v>1.934273193587663</v>
       </c>
       <c r="F11">
-        <v>2.941077792346796</v>
+        <v>1.874692235679607</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
